--- a/WebContent/exceltemplate/alltypeExcelTempl.xlsx
+++ b/WebContent/exceltemplate/alltypeExcelTempl.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
@@ -10,7 +10,7 @@
     <sheet name="pageTemplate" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -261,7 +261,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
@@ -269,7 +269,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,20 +404,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,6 +425,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -471,7 +479,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,9 +511,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -537,6 +546,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -712,14 +722,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
     <col min="2" max="2" width="30.25" customWidth="1"/>
@@ -728,133 +738,133 @@
     <col min="5" max="5" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A2" s="11" t="s">
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="11" t="s">
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="11" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="11" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -868,7 +878,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="31.35" customHeight="1">
+    <row r="14" spans="1:5" ht="31.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -881,8 +891,12 @@
       <c r="D14" s="10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="31.35" customHeight="1">
+      <c r="E14" t="str">
+        <f>B14</f>
+        <v>$attachFileTable[0].fileComment</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="31.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -895,8 +909,12 @@
       <c r="D15" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="31.35" customHeight="1">
+      <c r="E15" t="str">
+        <f>B15</f>
+        <v>$attachFileTable[1].fileComment</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="31.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -909,8 +927,12 @@
       <c r="D16" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="31.35" customHeight="1">
+      <c r="E16" t="str">
+        <f>B16</f>
+        <v>$attachFileTable[2].fileComment</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="31.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -923,8 +945,12 @@
       <c r="D17" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="31.35" customHeight="1">
+      <c r="E17" t="str">
+        <f>B17</f>
+        <v>$attachFileTable[3].fileComment</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="31.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -937,8 +963,12 @@
       <c r="D18" s="10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="31.35" customHeight="1">
+      <c r="E18" t="str">
+        <f>B18</f>
+        <v>$attachFileTable[4].fileComment</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
@@ -951,8 +981,12 @@
       <c r="D19" s="10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="31.35" customHeight="1">
+      <c r="E19" t="str">
+        <f>B19</f>
+        <v>$attachFileTable[5].fileComment</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="31.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
@@ -965,8 +999,12 @@
       <c r="D20" s="10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="31.35" customHeight="1">
+      <c r="E20" t="str">
+        <f>B20</f>
+        <v>$attachFileTable[6].fileComment</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="31.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
@@ -979,8 +1017,12 @@
       <c r="D21" s="10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="31.35" customHeight="1">
+      <c r="E21" t="str">
+        <f>B21</f>
+        <v>$attachFileTable[7].fileComment</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="31.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
@@ -993,8 +1035,12 @@
       <c r="D22" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="31.35" customHeight="1">
+      <c r="E22" t="str">
+        <f>B22</f>
+        <v>$attachFileTable[8].fileComment</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="31.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -1007,14 +1053,13 @@
       <c r="D23" s="10" t="s">
         <v>64</v>
       </c>
+      <c r="E23" t="str">
+        <f>B23</f>
+        <v>$attachFileTable[9].fileComment</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -1022,6 +1067,11 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1030,12 +1080,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebContent/exceltemplate/alltypeExcelTempl.xlsx
+++ b/WebContent/exceltemplate/alltypeExcelTempl.xlsx
@@ -10,6 +10,9 @@
     <sheet name="pageTemplate" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">pageTemplate!$A$1:$E$23</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -725,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -734,8 +737,9 @@
     <col min="1" max="1" width="6.125" customWidth="1"/>
     <col min="2" max="2" width="30.25" customWidth="1"/>
     <col min="3" max="3" width="44.5" customWidth="1"/>
-    <col min="4" max="4" width="43.25" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="0.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -892,7 +896,7 @@
         <v>55</v>
       </c>
       <c r="E14" t="str">
-        <f>B14</f>
+        <f t="shared" ref="E14:E23" si="0">B14</f>
         <v>$attachFileTable[0].fileComment</v>
       </c>
     </row>
@@ -910,7 +914,7 @@
         <v>56</v>
       </c>
       <c r="E15" t="str">
-        <f>B15</f>
+        <f t="shared" si="0"/>
         <v>$attachFileTable[1].fileComment</v>
       </c>
     </row>
@@ -928,7 +932,7 @@
         <v>57</v>
       </c>
       <c r="E16" t="str">
-        <f>B16</f>
+        <f t="shared" si="0"/>
         <v>$attachFileTable[2].fileComment</v>
       </c>
     </row>
@@ -946,7 +950,7 @@
         <v>58</v>
       </c>
       <c r="E17" t="str">
-        <f>B17</f>
+        <f t="shared" si="0"/>
         <v>$attachFileTable[3].fileComment</v>
       </c>
     </row>
@@ -964,7 +968,7 @@
         <v>59</v>
       </c>
       <c r="E18" t="str">
-        <f>B18</f>
+        <f t="shared" si="0"/>
         <v>$attachFileTable[4].fileComment</v>
       </c>
     </row>
@@ -982,7 +986,7 @@
         <v>60</v>
       </c>
       <c r="E19" t="str">
-        <f>B19</f>
+        <f t="shared" si="0"/>
         <v>$attachFileTable[5].fileComment</v>
       </c>
     </row>
@@ -1000,7 +1004,7 @@
         <v>61</v>
       </c>
       <c r="E20" t="str">
-        <f>B20</f>
+        <f t="shared" si="0"/>
         <v>$attachFileTable[6].fileComment</v>
       </c>
     </row>
@@ -1018,7 +1022,7 @@
         <v>62</v>
       </c>
       <c r="E21" t="str">
-        <f>B21</f>
+        <f t="shared" si="0"/>
         <v>$attachFileTable[7].fileComment</v>
       </c>
     </row>
@@ -1036,7 +1040,7 @@
         <v>63</v>
       </c>
       <c r="E22" t="str">
-        <f>B22</f>
+        <f t="shared" si="0"/>
         <v>$attachFileTable[8].fileComment</v>
       </c>
     </row>
@@ -1054,7 +1058,7 @@
         <v>64</v>
       </c>
       <c r="E23" t="str">
-        <f>B23</f>
+        <f t="shared" si="0"/>
         <v>$attachFileTable[9].fileComment</v>
       </c>
     </row>
@@ -1075,7 +1079,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/WebContent/exceltemplate/alltypeExcelTempl.xlsx
+++ b/WebContent/exceltemplate/alltypeExcelTempl.xlsx
@@ -52,55 +52,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>$charField</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$varcharField</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Smallint</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>$smallintField</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$integerField</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$bigintField</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Bigint</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>$doubleField</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$dateField</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$timeField</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$timestampField</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$attachFileTable[0].fileComment</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -115,136 +75,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>$attachFileTable[0].dateField</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$attachFileTable[1].fileComment</t>
-  </si>
-  <si>
-    <t>$attachFileTable[1].dateField</t>
-  </si>
-  <si>
-    <t>$attachFileTable[2].fileComment</t>
-  </si>
-  <si>
-    <t>$attachFileTable[2].dateField</t>
-  </si>
-  <si>
-    <t>$attachFileTable[3].fileComment</t>
-  </si>
-  <si>
-    <t>$attachFileTable[3].dateField</t>
-  </si>
-  <si>
-    <t>$attachFileTable[4].fileComment</t>
-  </si>
-  <si>
-    <t>$attachFileTable[4].dateField</t>
-  </si>
-  <si>
-    <t>$attachFileTable[5].fileComment</t>
-  </si>
-  <si>
-    <t>$attachFileTable[5].dateField</t>
-  </si>
-  <si>
-    <t>$attachFileTable[6].fileComment</t>
-  </si>
-  <si>
-    <t>$attachFileTable[6].dateField</t>
-  </si>
-  <si>
-    <t>$attachFileTable[7].fileComment</t>
-  </si>
-  <si>
-    <t>$attachFileTable[7].dateField</t>
-  </si>
-  <si>
-    <t>$attachFileTable[8].fileComment</t>
-  </si>
-  <si>
-    <t>$attachFileTable[8].dateField</t>
-  </si>
-  <si>
-    <t>$attachFileTable[9].fileComment</t>
-  </si>
-  <si>
-    <t>$attachFileTable[9].dateField</t>
-  </si>
-  <si>
-    <t>$attachFileTable[0].no</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$attachFileTable[1].no</t>
-  </si>
-  <si>
-    <t>$attachFileTable[2].no</t>
-  </si>
-  <si>
-    <t>$attachFileTable[3].no</t>
-  </si>
-  <si>
-    <t>$attachFileTable[4].no</t>
-  </si>
-  <si>
-    <t>$attachFileTable[5].no</t>
-  </si>
-  <si>
-    <t>$attachFileTable[6].no</t>
-  </si>
-  <si>
-    <t>$attachFileTable[7].no</t>
-  </si>
-  <si>
-    <t>$attachFileTable[8].no</t>
-  </si>
-  <si>
-    <t>$attachFileTable[9].no</t>
-  </si>
-  <si>
     <t>Bigint</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>$numericField</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>$webImage{rows:3,columns:2,dx1:1,dy1:1,dx2:-1,dy2:-1,aspect:"cell"}</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$attachFileTable[0].barcode{aspect:"image"}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$attachFileTable[1].barcode{aspect:"image"}</t>
-  </si>
-  <si>
-    <t>$attachFileTable[2].barcode{aspect:"image"}</t>
-  </si>
-  <si>
-    <t>$attachFileTable[3].barcode{aspect:"image"}</t>
-  </si>
-  <si>
-    <t>$attachFileTable[4].barcode{aspect:"image"}</t>
-  </si>
-  <si>
-    <t>$attachFileTable[5].barcode{aspect:"image"}</t>
-  </si>
-  <si>
-    <t>$attachFileTable[6].barcode{aspect:"image"}</t>
-  </si>
-  <si>
-    <t>$attachFileTable[7].barcode{aspect:"image"}</t>
-  </si>
-  <si>
-    <t>$attachFileTable[8].barcode{aspect:"image"}</t>
-  </si>
-  <si>
-    <t>$attachFileTable[9].barcode{aspect:"image"}</t>
   </si>
   <si>
     <t>画像テスト</t>
@@ -259,6 +95,170 @@
       <t>ガゾウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${attachFileTable[0].dateField}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${attachFileTable[1].dateField}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[2].dateField}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[3].dateField}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[4].dateField}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[5].dateField}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[6].dateField}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[7].dateField}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[8].dateField}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[9].dateField}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[0].barcode}{aspect:"image"}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${attachFileTable[1].barcode}{aspect:"image"}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[2].barcode}{aspect:"image"}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[3].barcode}{aspect:"image"}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[4].barcode}{aspect:"image"}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[5].barcode}{aspect:"image"}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[6].barcode}{aspect:"image"}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[7].barcode}{aspect:"image"}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[8].barcode}{aspect:"image"}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[9].barcode}{aspect:"image"}</t>
+  </si>
+  <si>
+    <t>${charField}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${varcharField}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${smallintField}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${integerField}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${bigintField}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${doubleField}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${numericField}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${dateField}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${timeField}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${timestampField}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${attachFileTable[0].no}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${attachFileTable[1].no}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[2].no}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[3].no}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[4].no}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[5].no}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[6].no}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[7].no}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[8].no}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[9].no}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[0].fileComment}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${attachFileTable[1].fileComment}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[2].fileComment}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[3].fileComment}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[4].fileComment}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[5].fileComment}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[6].fileComment}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[7].fileComment}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[8].fileComment}</t>
+  </si>
+  <si>
+    <t>${attachFileTable[9].fileComment}</t>
   </si>
 </sst>
 </file>
@@ -413,14 +413,14 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,7 +729,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -738,7 +738,7 @@
     <col min="2" max="2" width="30.25" customWidth="1"/>
     <col min="3" max="3" width="44.5" customWidth="1"/>
     <col min="4" max="4" width="31.875" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="5.625" customWidth="1"/>
     <col min="6" max="6" width="0.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -747,323 +747,328 @@
         <v>1</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="D1" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="14"/>
+      <c r="D1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="B4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="15" t="s">
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" s="9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="31.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" ref="E14:E23" si="0">B14</f>
-        <v>$attachFileTable[0].fileComment</v>
+        <v>${attachFileTable[0].fileComment}</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="31.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>$attachFileTable[1].fileComment</v>
+        <v>${attachFileTable[1].fileComment}</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="31.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>$attachFileTable[2].fileComment</v>
+        <v>${attachFileTable[2].fileComment}</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="31.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>$attachFileTable[3].fileComment</v>
+        <v>${attachFileTable[3].fileComment}</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="31.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>$attachFileTable[4].fileComment</v>
+        <v>${attachFileTable[4].fileComment}</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="31.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>$attachFileTable[5].fileComment</v>
+        <v>${attachFileTable[5].fileComment}</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="31.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>$attachFileTable[6].fileComment</v>
+        <v>${attachFileTable[6].fileComment}</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="31.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>$attachFileTable[7].fileComment</v>
+        <v>${attachFileTable[7].fileComment}</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="31.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>$attachFileTable[8].fileComment</v>
+        <v>${attachFileTable[8].fileComment}</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="31.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>$attachFileTable[9].fileComment</v>
+        <v>${attachFileTable[9].fileComment}</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -1071,11 +1076,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
